--- a/Multi-taxa_data/PLITs/plits_length_df.xlsx
+++ b/Multi-taxa_data/PLITs/plits_length_df.xlsx
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="B13">
+        <v>2705</v>
+      </c>
+      <c r="C13">
+        <v>2588</v>
+      </c>
+      <c r="D13">
+        <v>2708</v>
+      </c>
+      <c r="E13">
         <v>2573</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>2577</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>2711</v>
-      </c>
-      <c r="E13">
-        <v>2705</v>
-      </c>
-      <c r="F13">
-        <v>2588</v>
-      </c>
-      <c r="G13">
-        <v>2708</v>
       </c>
     </row>
   </sheetData>

--- a/Multi-taxa_data/PLITs/plits_length_df.xlsx
+++ b/Multi-taxa_data/PLITs/plits_length_df.xlsx
@@ -504,19 +504,19 @@
         <v>2476</v>
       </c>
       <c r="C6">
-        <v>2649</v>
+        <v>2598</v>
       </c>
       <c r="D6">
-        <v>2722</v>
+        <v>2621</v>
       </c>
       <c r="E6">
-        <v>2554</v>
+        <v>2650</v>
       </c>
       <c r="F6">
-        <v>2685</v>
+        <v>2650</v>
       </c>
       <c r="G6">
-        <v>2720</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="7">
